--- a/webapp/equipment/importExcelTemp.xlsx
+++ b/webapp/equipment/importExcelTemp.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="equipment_list" sheetId="1" r:id="rId1"/>
+    <sheet name="data_format" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,33 +39,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>202-FHB-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4Kg干粉</t>
+  </si>
+  <si>
+    <t>202 1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1F大厅走道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防器001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5KgCO2</t>
+  </si>
+  <si>
+    <t>3KgCO2</t>
+  </si>
+  <si>
+    <t>3Kg干粉</t>
+  </si>
+  <si>
+    <t>35Kg泡沫</t>
+  </si>
+  <si>
+    <t>35Kg干粉</t>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>设备类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202-FHB-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4Kg干粉</t>
-  </si>
-  <si>
-    <t>灭火器</t>
-  </si>
-  <si>
-    <t>202 1F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1F大厅走道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消防器001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,6 +97,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,15 +151,95 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -431,38 +539,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H5"/>
+      <selection activeCell="D19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="4"/>
     <col min="6" max="6" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -470,25 +580,28 @@
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F2" s="2">
         <v>43466</v>
@@ -496,8 +609,75 @@
       <c r="G2" s="2">
         <v>44196</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2">
+        <v>44196</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>data_format!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
